--- a/2006/burglary-2006.xlsx
+++ b/2006/burglary-2006.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="victims-by-age-gender-and-race" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="offenders-by-age-gender-and-rac" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="point-of-entry-exit" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="structure-security-type" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="resident-status-of-victim" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="how-suspect-left-scene" state="visible" r:id="rId8"/>
-    <sheet sheetId="7" name="burglary-by-time-of-day-and-day" state="visible" r:id="rId9"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="offenders-by-age-gender-and-rac" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="point-of-entry-exit" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="structure-security-type" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="resident-status-of-victim" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="how-suspect-left-scene" state="visible" r:id="rId9"/>
+    <sheet sheetId="8" name="burglary-by-time-of-day-and-day" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -67,6 +68,48 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Burglaries</t>
+  </si>
+  <si>
     <t>Offender Age, Gender and Race</t>
   </si>
   <si>
@@ -347,6 +390,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -380,12 +426,15 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -428,6 +477,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -636,48 +689,158 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" customWidth="1" max="1" width="28.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>28</v>
+      </c>
+      <c s="1" r="N1"/>
+      <c s="1" r="O1"/>
+      <c s="1" r="P1"/>
+      <c s="1" r="Q1"/>
+      <c s="1" r="R1"/>
+      <c s="1" r="S1"/>
+      <c s="1" r="T1"/>
+      <c s="1" r="U1"/>
+      <c s="1" r="V1"/>
+      <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>29</v>
+      </c>
+      <c s="3" r="B2">
+        <v>2718.0</v>
+      </c>
+      <c s="3" r="C2">
+        <v>2191.0</v>
+      </c>
+      <c s="3" r="D2">
+        <v>2416.0</v>
+      </c>
+      <c s="3" r="E2">
+        <v>2362.0</v>
+      </c>
+      <c s="3" r="F2">
+        <v>2860.0</v>
+      </c>
+      <c s="3" r="G2">
+        <v>2758.0</v>
+      </c>
+      <c s="3" r="H2">
+        <v>2963.0</v>
+      </c>
+      <c s="3" r="I2">
+        <v>2883.0</v>
+      </c>
+      <c s="3" r="J2">
+        <v>2532.0</v>
+      </c>
+      <c s="3" r="K2">
+        <v>2603.0</v>
+      </c>
+      <c s="3" r="L2">
+        <v>2524.0</v>
+      </c>
+      <c s="3" r="M2">
+        <v>2719.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col min="1" customWidth="1" max="1" width="36.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="3" r="A1">
-        <v>16</v>
+      <c t="s" s="4" r="A1">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c s="2" r="B4">
         <v>1916.0</v>
@@ -700,7 +863,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c s="2" r="B5">
         <v>2246.0</v>
@@ -723,7 +886,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c s="2" r="B6">
         <v>1.0</v>
@@ -746,7 +909,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c s="2" r="B7">
         <v>28.0</v>
@@ -769,7 +932,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c s="2" r="B8">
         <v>234.0</v>
@@ -792,7 +955,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:G9" t="shared" si="1">sum(B4:B8)</f>
@@ -830,7 +993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -842,18 +1005,18 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c t="s" s="2" r="C1">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c s="2" r="B2">
         <v>5438.0</v>
@@ -864,7 +1027,7 @@
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c s="2" r="B3">
         <v>5842.0</v>
@@ -875,7 +1038,7 @@
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c s="2" r="B4">
         <v>2059.0</v>
@@ -886,7 +1049,7 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c s="2" r="B5">
         <v>37.0</v>
@@ -897,7 +1060,7 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c s="2" r="B6">
         <v>90.0</v>
@@ -908,7 +1071,7 @@
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c s="2" r="B7">
         <v>4672.0</v>
@@ -919,7 +1082,7 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c s="2" r="B8">
         <v>7965.0</v>
@@ -930,7 +1093,7 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c s="2" r="B9">
         <v>490.0</v>
@@ -941,7 +1104,7 @@
     </row>
     <row r="10">
       <c t="s" s="2" r="A10">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c s="2" r="B10">
         <v>49.0</v>
@@ -952,7 +1115,7 @@
     </row>
     <row r="11">
       <c t="s" s="2" r="A11">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c s="2" r="B11">
         <v>449.0</v>
@@ -963,7 +1126,7 @@
     </row>
     <row r="12">
       <c t="s" s="2" r="A12">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c s="2" r="B12">
         <v>79.0</v>
@@ -974,7 +1137,7 @@
     </row>
     <row r="13">
       <c t="s" s="2" r="A13">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c s="2" r="B13">
         <v>10.0</v>
@@ -985,7 +1148,7 @@
     </row>
     <row r="14">
       <c t="s" s="2" r="A14">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c s="2" r="B14">
         <v>22.0</v>
@@ -996,7 +1159,7 @@
     </row>
     <row r="15">
       <c t="s" s="2" r="A15">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c s="2" r="B15">
         <v>64.0</v>
@@ -1007,7 +1170,7 @@
     </row>
     <row r="16">
       <c t="s" s="2" r="A16">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c s="2" r="B16">
         <v>6.0</v>
@@ -1018,7 +1181,7 @@
     </row>
     <row r="17">
       <c t="s" s="2" r="A17">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c s="2" r="B17">
         <v>445.0</v>
@@ -1029,156 +1192,13 @@
     </row>
     <row r="18">
       <c t="s" s="2" r="A18">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c s="2" r="B18">
         <v>1220.0</v>
       </c>
       <c s="2" r="C18">
         <v>1655.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="48.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
-        <v>52</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>54</v>
-      </c>
-      <c s="2" r="B2">
-        <v>1183.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>55</v>
-      </c>
-      <c s="2" r="B3">
-        <v>314.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>56</v>
-      </c>
-      <c s="2" r="B4">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>57</v>
-      </c>
-      <c s="2" r="B5">
-        <v>429.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>58</v>
-      </c>
-      <c s="2" r="B6">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>59</v>
-      </c>
-      <c s="2" r="B7">
-        <v>1976.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>60</v>
-      </c>
-      <c s="2" r="B8">
-        <v>9753.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>61</v>
-      </c>
-      <c s="2" r="B9">
-        <v>2083.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>62</v>
-      </c>
-      <c s="2" r="B10">
-        <v>301.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>63</v>
-      </c>
-      <c s="2" r="B11">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="2" r="A12">
-        <v>64</v>
-      </c>
-      <c s="2" r="B12">
-        <v>252.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" s="2" r="A13">
-        <v>65</v>
-      </c>
-      <c s="2" r="B13">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" s="2" r="A14">
-        <v>66</v>
-      </c>
-      <c s="2" r="B14">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="2" r="A15">
-        <v>67</v>
-      </c>
-      <c s="2" r="B15">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="2" r="A16">
-        <v>68</v>
-      </c>
-      <c s="2" r="B16">
-        <v>2872.0</v>
       </c>
     </row>
   </sheetData>
@@ -1193,48 +1213,135 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="37.29"/>
+    <col min="1" customWidth="1" max="1" width="48.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c s="2" r="B2">
-        <v>21944.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c s="2" r="B3">
-        <v>1650.0</v>
+        <v>314.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c s="2" r="B4">
-        <v>3655.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
+        <v>71</v>
+      </c>
+      <c s="2" r="B5">
+        <v>429.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>72</v>
+      </c>
+      <c s="2" r="B6">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>73</v>
+      </c>
+      <c s="2" r="B7">
+        <v>1976.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
         <v>74</v>
       </c>
-      <c t="str" s="2" r="B5">
-        <f>sum(B2:B4)</f>
-        <v>27249</v>
+      <c s="2" r="B8">
+        <v>9753.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>75</v>
+      </c>
+      <c s="2" r="B9">
+        <v>2083.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>76</v>
+      </c>
+      <c s="2" r="B10">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
+        <v>77</v>
+      </c>
+      <c s="2" r="B11">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" s="2" r="A12">
+        <v>78</v>
+      </c>
+      <c s="2" r="B12">
+        <v>252.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" s="2" r="A13">
+        <v>79</v>
+      </c>
+      <c s="2" r="B13">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" s="2" r="A14">
+        <v>80</v>
+      </c>
+      <c s="2" r="B14">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" s="2" r="A15">
+        <v>81</v>
+      </c>
+      <c s="2" r="B15">
+        <v>168.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" s="2" r="A16">
+        <v>82</v>
+      </c>
+      <c s="2" r="B16">
+        <v>2872.0</v>
       </c>
     </row>
   </sheetData>
@@ -1249,87 +1356,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="49.43"/>
+    <col min="1" customWidth="1" max="1" width="37.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c s="2" r="B2">
-        <v>663.0</v>
+        <v>21944.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c s="2" r="B3">
-        <v>161.0</v>
+        <v>1650.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c s="2" r="B4">
-        <v>43.0</v>
+        <v>3655.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>80</v>
-      </c>
-      <c s="2" r="B5">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>81</v>
-      </c>
-      <c s="2" r="B6">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>82</v>
-      </c>
-      <c s="2" r="B7">
-        <v>2063.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>83</v>
-      </c>
-      <c s="2" r="B8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>84</v>
-      </c>
-      <c s="2" r="B9">
-        <v>324.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>85</v>
-      </c>
-      <c s="2" r="B10">
-        <v>11340.0</v>
+        <v>88</v>
+      </c>
+      <c t="str" s="2" r="B5">
+        <f>sum(B2:B4)</f>
+        <v>27249</v>
       </c>
     </row>
   </sheetData>
@@ -1343,49 +1411,144 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="49.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>89</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>91</v>
+      </c>
+      <c s="2" r="B2">
+        <v>663.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>92</v>
+      </c>
+      <c s="2" r="B3">
+        <v>161.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>93</v>
+      </c>
+      <c s="2" r="B4">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>94</v>
+      </c>
+      <c s="2" r="B5">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>95</v>
+      </c>
+      <c s="2" r="B6">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>96</v>
+      </c>
+      <c s="2" r="B7">
+        <v>2063.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>97</v>
+      </c>
+      <c s="2" r="B8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>98</v>
+      </c>
+      <c s="2" r="B9">
+        <v>324.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>99</v>
+      </c>
+      <c s="2" r="B10">
+        <v>11340.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c t="s" s="1" r="E1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" s="1" r="F1">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c t="s" s="1" r="G1">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c t="s" s="1" r="H1">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" s="1" r="I1">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c t="s" s="1" r="J1">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c t="s" s="1" r="K1">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" s="1" r="L1">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c t="s" s="1" r="M1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c t="s" s="1" r="N1">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c s="1" r="O1"/>
       <c s="1" r="P1"/>
@@ -1401,8 +1564,8 @@
       <c s="1" r="Z1"/>
     </row>
     <row r="2">
-      <c t="s" s="3" r="A2">
-        <v>100</v>
+      <c t="s" s="4" r="A2">
+        <v>114</v>
       </c>
       <c s="2" r="B2">
         <v>331.0</v>
@@ -1445,8 +1608,8 @@
       </c>
     </row>
     <row r="3">
-      <c t="s" s="3" r="A3">
-        <v>101</v>
+      <c t="s" s="4" r="A3">
+        <v>115</v>
       </c>
       <c s="2" r="B3">
         <v>299.0</v>
@@ -1489,8 +1652,8 @@
       </c>
     </row>
     <row r="4">
-      <c t="s" s="3" r="A4">
-        <v>102</v>
+      <c t="s" s="4" r="A4">
+        <v>116</v>
       </c>
       <c s="2" r="B4">
         <v>313.0</v>
@@ -1533,8 +1696,8 @@
       </c>
     </row>
     <row r="5">
-      <c t="s" s="3" r="A5">
-        <v>103</v>
+      <c t="s" s="4" r="A5">
+        <v>117</v>
       </c>
       <c s="2" r="B5">
         <v>320.0</v>
@@ -1577,8 +1740,8 @@
       </c>
     </row>
     <row r="6">
-      <c t="s" s="3" r="A6">
-        <v>104</v>
+      <c t="s" s="4" r="A6">
+        <v>118</v>
       </c>
       <c s="2" r="B6">
         <v>365.0</v>
@@ -1621,8 +1784,8 @@
       </c>
     </row>
     <row r="7">
-      <c t="s" s="3" r="A7">
-        <v>105</v>
+      <c t="s" s="4" r="A7">
+        <v>119</v>
       </c>
       <c s="2" r="B7">
         <v>372.0</v>
@@ -1665,8 +1828,8 @@
       </c>
     </row>
     <row r="8">
-      <c t="s" s="3" r="A8">
-        <v>106</v>
+      <c t="s" s="4" r="A8">
+        <v>120</v>
       </c>
       <c s="2" r="B8">
         <v>373.0</v>
@@ -1709,8 +1872,8 @@
       </c>
     </row>
     <row r="9">
-      <c t="s" s="3" r="A9">
-        <v>107</v>
+      <c t="s" s="4" r="A9">
+        <v>121</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
